--- a/03 Batman.xlsx
+++ b/03 Batman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvatore\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B761AE-E7A9-471A-986C-9AA967AE6186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA49AD34-13CB-447A-BE00-72EA9C3F8E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="1040" windowWidth="36340" windowHeight="18960" activeTab="4" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="990" yWindow="1100" windowWidth="36340" windowHeight="18960" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -2134,7 +2134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73971FEA-25FE-4DC4-9CE1-41D7407E5AC2}">
   <dimension ref="A4:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -2536,7 +2536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A47C3C9-F920-4C71-BE03-2F19A0EF59AF}">
   <dimension ref="A4:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -2874,7 +2874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6564F7BB-1AB3-43A4-9156-09FC53B2D383}">
   <dimension ref="A4:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="224" zoomScaleNormal="224" workbookViewId="0">
+    <sheetView zoomScale="224" zoomScaleNormal="224" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/03 Batman.xlsx
+++ b/03 Batman.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA49AD34-13CB-447A-BE00-72EA9C3F8E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AC9E06-522F-4C91-8B0D-228C047D2638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1100" windowWidth="36340" windowHeight="18960" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="9700" yWindow="1330" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
     <sheet name="Detective Comics" sheetId="12" r:id="rId2"/>
     <sheet name="Batman Gotham Knights" sheetId="21" r:id="rId3"/>
     <sheet name="Batman vol.1" sheetId="8" r:id="rId4"/>
-    <sheet name="Batman vol.2" sheetId="19" r:id="rId5"/>
-    <sheet name="Batman vol.3" sheetId="20" r:id="rId6"/>
-    <sheet name="Legends" sheetId="13" r:id="rId7"/>
-    <sheet name="Shadow of The Bat" sheetId="17" r:id="rId8"/>
-    <sheet name="Catwoman vol.1" sheetId="15" r:id="rId9"/>
-    <sheet name="Robin vol.2" sheetId="16" r:id="rId10"/>
-    <sheet name="Speciali" sheetId="14" r:id="rId11"/>
+    <sheet name="World Finest Comics" sheetId="22" r:id="rId5"/>
+    <sheet name="The Brave and the Bold" sheetId="23" r:id="rId6"/>
+    <sheet name="Batman vol.2" sheetId="19" r:id="rId7"/>
+    <sheet name="Batman vol.3" sheetId="20" r:id="rId8"/>
+    <sheet name="Legends" sheetId="13" r:id="rId9"/>
+    <sheet name="Shadow of The Bat" sheetId="17" r:id="rId10"/>
+    <sheet name="Catwoman vol.1" sheetId="15" r:id="rId11"/>
+    <sheet name="Robin vol.2" sheetId="16" r:id="rId12"/>
+    <sheet name="Speciali" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
   <si>
     <t>Da</t>
   </si>
@@ -1069,6 +1071,21 @@
   </si>
   <si>
     <t>Leggende DC da #97</t>
+  </si>
+  <si>
+    <t>DC Comics Story #2</t>
+  </si>
+  <si>
+    <t>DC Comics Story # 8</t>
+  </si>
+  <si>
+    <t>DC Comics Story #8</t>
+  </si>
+  <si>
+    <t>DC Comics Story #11, #14</t>
+  </si>
+  <si>
+    <t>DC Comics Story # 11, #14</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1310,6 +1327,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1786,6 +1804,297 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61DF9C1-04BA-4013-B8A7-62BB412E7EC0}">
+  <dimension ref="A4:D23"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="4" max="4" width="60.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" ht="21.5">
+      <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17.5">
+      <c r="A7" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17.5">
+      <c r="A8" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17.5">
+      <c r="A9" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="17.5">
+      <c r="A10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17.5">
+      <c r="A11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18.5">
+      <c r="A12" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="17.5">
+      <c r="A13" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B19" s="11">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11">
+        <v>6</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B20" s="11">
+        <v>7</v>
+      </c>
+      <c r="C20" s="11">
+        <v>9</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B21" s="11">
+        <v>10</v>
+      </c>
+      <c r="C21" s="11">
+        <v>12</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B22" s="11">
+        <v>13</v>
+      </c>
+      <c r="C22" s="11">
+        <v>18</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/personaggio/batman3" xr:uid="{C498F5EC-40E4-40C4-9515-0A4F49B660C7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06672F4A-AA94-4DEA-A943-1B198B86E01B}">
+  <dimension ref="A4:D23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="248" zoomScaleNormal="248" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="4" max="4" width="48.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" ht="21.5">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B19" s="11">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B21" s="11">
+        <v>8</v>
+      </c>
+      <c r="C21" s="11">
+        <v>11</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B22" s="11">
+        <v>12</v>
+      </c>
+      <c r="C22" s="11">
+        <v>12</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B23" s="11">
+        <v>13</v>
+      </c>
+      <c r="C23" s="11">
+        <v>13</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/personaggio/catwoman3" xr:uid="{83E5080B-13CD-45C1-92BF-859E987DF919}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BC974D-AF97-4511-9A7B-539BB8682E3F}">
   <dimension ref="A4:D20"/>
   <sheetViews>
@@ -1901,7 +2210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E560FBA6-7C38-44E2-BE52-0A2021888AE8}">
   <dimension ref="A3:F13"/>
   <sheetViews>
@@ -2132,10 +2441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73971FEA-25FE-4DC4-9CE1-41D7407E5AC2}">
-  <dimension ref="A4:D42"/>
+  <dimension ref="A4:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2202,177 +2511,147 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B18" s="2">
-        <v>573</v>
-      </c>
-      <c r="C18" s="2">
-        <v>574</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
+    <row r="18" spans="2:4" s="2" customFormat="1" ht="21"/>
     <row r="19" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B19" s="2">
-        <v>575</v>
+        <v>327</v>
       </c>
       <c r="C19" s="2">
-        <v>578</v>
+        <v>336</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B20" s="2">
-        <v>579</v>
-      </c>
-      <c r="C20" s="2">
-        <v>581</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="2" customFormat="1" ht="21"/>
     <row r="21" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B21" s="2">
-        <v>582</v>
+        <v>410</v>
       </c>
       <c r="C21" s="2">
-        <v>582</v>
+        <v>410</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B22" s="2">
-        <v>583</v>
-      </c>
-      <c r="C22" s="2">
-        <v>594</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="2" customFormat="1" ht="21"/>
     <row r="23" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B23" s="2">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="C23" s="2">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B24" s="2">
+        <v>575</v>
+      </c>
+      <c r="C24" s="2">
+        <v>578</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B25" s="2">
+        <v>579</v>
+      </c>
+      <c r="C25" s="2">
+        <v>581</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B26" s="2">
+        <v>582</v>
+      </c>
+      <c r="C26" s="2">
+        <v>582</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B27" s="2">
+        <v>583</v>
+      </c>
+      <c r="C27" s="2">
+        <v>594</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B28" s="2">
+        <v>595</v>
+      </c>
+      <c r="C28" s="2">
+        <v>595</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B29" s="2">
         <v>596</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C29" s="2">
         <v>607</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B25" s="11">
-        <v>608</v>
-      </c>
-      <c r="C25" s="11">
-        <v>614</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B26" s="11">
-        <v>615</v>
-      </c>
-      <c r="C26" s="11">
-        <v>621</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B27" s="11">
-        <v>622</v>
-      </c>
-      <c r="C27" s="11">
-        <v>627</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B28" s="11">
-        <v>628</v>
-      </c>
-      <c r="C28" s="11">
-        <v>628</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B29" s="11">
-        <v>629</v>
-      </c>
-      <c r="C29" s="11">
-        <v>633</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="11" customFormat="1" ht="21">
       <c r="B30" s="11">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="C30" s="11">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:4" s="11" customFormat="1" ht="21">
       <c r="B31" s="11">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="C31" s="11">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:4" s="11" customFormat="1" ht="21">
       <c r="B32" s="11">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="C32" s="11">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="11" customFormat="1" ht="21">
       <c r="B33" s="11">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C33" s="11">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>10</v>
@@ -2380,67 +2659,122 @@
     </row>
     <row r="34" spans="2:4" s="11" customFormat="1" ht="21">
       <c r="B34" s="11">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="C34" s="11">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B35" s="2">
-        <v>659</v>
-      </c>
-      <c r="C35" s="2">
-        <v>662</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B36" s="2">
-        <v>663</v>
-      </c>
-      <c r="C36" s="2">
-        <v>675</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B35" s="11">
+        <v>634</v>
+      </c>
+      <c r="C35" s="11">
+        <v>638</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B36" s="11">
+        <v>639</v>
+      </c>
+      <c r="C36" s="11">
+        <v>641</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="11" customFormat="1" ht="21">
       <c r="B37" s="11">
+        <v>642</v>
+      </c>
+      <c r="C37" s="11">
+        <v>642</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B38" s="11">
+        <v>643</v>
+      </c>
+      <c r="C38" s="11">
+        <v>653</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B39" s="11">
+        <v>654</v>
+      </c>
+      <c r="C39" s="11">
+        <v>658</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B40" s="2">
+        <v>659</v>
+      </c>
+      <c r="C40" s="2">
+        <v>662</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B41" s="2">
+        <v>663</v>
+      </c>
+      <c r="C41" s="2">
+        <v>675</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B42" s="11">
         <v>676</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C42" s="11">
         <v>676</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B38" s="2">
+    <row r="43" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B43" s="2">
         <v>677</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C43" s="2">
         <v>677</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B42" s="2">
+    <row r="47" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B47" s="2">
         <v>853</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C47" s="2">
         <v>853</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2534,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A47C3C9-F920-4C71-BE03-2F19A0EF59AF}">
-  <dimension ref="A4:D46"/>
+  <dimension ref="A4:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A18" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2632,233 +2966,317 @@
     </row>
     <row r="23" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B23" s="2">
-        <v>404</v>
+        <v>164</v>
       </c>
       <c r="C23" s="2">
-        <v>407</v>
+        <v>170</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" ht="21">
-      <c r="B24" s="2">
-        <v>408</v>
-      </c>
-      <c r="C24" s="2">
-        <v>413</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" ht="21"/>
     <row r="25" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B25" s="2">
-        <v>414</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2">
-        <v>414</v>
+        <v>232</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" ht="21">
-      <c r="B26" s="2">
-        <v>415</v>
-      </c>
-      <c r="C26" s="2">
-        <v>415</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" ht="21"/>
     <row r="27" spans="1:4" s="2" customFormat="1" ht="21">
       <c r="B27" s="2">
-        <v>416</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2">
-        <v>442</v>
+        <v>234</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="11" customFormat="1" ht="21">
-      <c r="B28" s="11">
-        <v>443</v>
-      </c>
-      <c r="C28" s="11">
-        <v>447</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="11" customFormat="1" ht="21">
-      <c r="B29" s="11">
-        <v>448</v>
-      </c>
-      <c r="C29" s="11">
-        <v>449</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="11" customFormat="1" ht="21">
-      <c r="B30" s="11">
-        <v>450</v>
-      </c>
-      <c r="C30" s="11">
-        <v>451</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="11" customFormat="1" ht="21">
-      <c r="B31" s="11">
-        <v>452</v>
-      </c>
-      <c r="C31" s="11">
-        <v>454</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="11" customFormat="1" ht="21">
-      <c r="B32" s="11">
-        <v>455</v>
-      </c>
-      <c r="C32" s="11">
-        <v>459</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B33" s="11">
-        <v>460</v>
-      </c>
-      <c r="C33" s="11">
-        <v>466</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B34" s="11">
-        <v>467</v>
-      </c>
-      <c r="C34" s="11">
-        <v>469</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B35" s="11">
-        <v>470</v>
-      </c>
-      <c r="C35" s="11">
-        <v>474</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B36" s="11">
-        <v>475</v>
-      </c>
-      <c r="C36" s="11">
-        <v>476</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B37" s="11">
-        <v>477</v>
-      </c>
-      <c r="C37" s="11">
-        <v>483</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B38" s="11">
-        <v>484</v>
-      </c>
-      <c r="C38" s="11">
-        <v>490</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>71</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" ht="21"/>
+    <row r="29" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B29" s="2">
+        <v>237</v>
+      </c>
+      <c r="C29" s="2">
+        <v>237</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" ht="21"/>
+    <row r="31" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B31" s="2">
+        <v>244</v>
+      </c>
+      <c r="C31" s="2">
+        <v>245</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="2" customFormat="1" ht="21"/>
+    <row r="33" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B33" s="2">
+        <v>251</v>
+      </c>
+      <c r="C33" s="2">
+        <v>251</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" s="2" customFormat="1" ht="21"/>
+    <row r="35" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B35" s="2">
+        <v>255</v>
+      </c>
+      <c r="C35" s="2">
+        <v>255</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" s="2" customFormat="1" ht="21"/>
+    <row r="37" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B37" s="2">
+        <v>404</v>
+      </c>
+      <c r="C37" s="2">
+        <v>407</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B38" s="2">
+        <v>408</v>
+      </c>
+      <c r="C38" s="2">
+        <v>413</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B39" s="2">
-        <v>491</v>
+        <v>414</v>
       </c>
       <c r="C39" s="2">
-        <v>495</v>
+        <v>414</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B40" s="2">
-        <v>492</v>
+        <v>415</v>
       </c>
       <c r="C40" s="2">
-        <v>495</v>
+        <v>415</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B41" s="2">
+        <v>416</v>
+      </c>
+      <c r="C41" s="2">
+        <v>442</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B42" s="11">
+        <v>443</v>
+      </c>
+      <c r="C42" s="11">
+        <v>447</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B43" s="11">
+        <v>448</v>
+      </c>
+      <c r="C43" s="11">
+        <v>449</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B44" s="11">
+        <v>450</v>
+      </c>
+      <c r="C44" s="11">
+        <v>451</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B45" s="11">
+        <v>452</v>
+      </c>
+      <c r="C45" s="11">
+        <v>454</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B46" s="11">
+        <v>455</v>
+      </c>
+      <c r="C46" s="11">
+        <v>459</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B47" s="11">
+        <v>460</v>
+      </c>
+      <c r="C47" s="11">
+        <v>466</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B48" s="11">
+        <v>467</v>
+      </c>
+      <c r="C48" s="11">
+        <v>469</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B49" s="11">
+        <v>470</v>
+      </c>
+      <c r="C49" s="11">
+        <v>474</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B50" s="11">
+        <v>475</v>
+      </c>
+      <c r="C50" s="11">
+        <v>476</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B51" s="11">
+        <v>477</v>
+      </c>
+      <c r="C51" s="11">
+        <v>483</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" s="11" customFormat="1" ht="21">
+      <c r="B52" s="11">
+        <v>484</v>
+      </c>
+      <c r="C52" s="11">
+        <v>490</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B53" s="2">
+        <v>491</v>
+      </c>
+      <c r="C53" s="2">
+        <v>495</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B54" s="2">
+        <v>492</v>
+      </c>
+      <c r="C54" s="2">
+        <v>495</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B55" s="2">
         <v>496</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C55" s="2">
         <v>510</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="2:4" s="2" customFormat="1" ht="21"/>
-    <row r="43" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B43" s="2">
+    <row r="56" spans="2:4" s="2" customFormat="1" ht="21"/>
+    <row r="57" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B57" s="2">
         <v>608</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C57" s="2">
         <v>619</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B46" s="2">
+    <row r="60" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B60" s="2">
         <v>686</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C60" s="2">
         <v>686</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2871,11 +3289,91 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393050A7-7D93-4DDC-AAA9-1212426B1A7D}">
+  <dimension ref="A4:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="5" max="5" width="31.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="A5" s="21">
+        <v>24990</v>
+      </c>
+      <c r="C5" s="2">
+        <v>175</v>
+      </c>
+      <c r="D5" s="2">
+        <v>176</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7470A933-869A-4D8B-B439-BFDA659A1725}">
+  <dimension ref="A4:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="236" zoomScaleNormal="236" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="21">
+      <c r="A5" s="21">
+        <v>25416</v>
+      </c>
+      <c r="C5" s="2">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6564F7BB-1AB3-43A4-9156-09FC53B2D383}">
   <dimension ref="A4:E17"/>
   <sheetViews>
     <sheetView zoomScale="224" zoomScaleNormal="224" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2959,7 +3457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB56E72-35D2-4084-94B8-A0C6BFC65A99}">
   <dimension ref="A4:D16"/>
   <sheetViews>
@@ -3045,7 +3543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21063A3-CAE4-458A-B500-7CB272B5A438}">
   <dimension ref="A4:E29"/>
   <sheetViews>
@@ -3239,295 +3737,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61DF9C1-04BA-4013-B8A7-62BB412E7EC0}">
-  <dimension ref="A4:D23"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="4" max="4" width="60.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:1" ht="21.5">
-      <c r="A4" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="17.5">
-      <c r="A7" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="17.5">
-      <c r="A8" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="17.5">
-      <c r="A9" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="17.5">
-      <c r="A10" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="17.5">
-      <c r="A11" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="18.5">
-      <c r="A12" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="17.5">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B18" s="11">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11">
-        <v>4</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B19" s="11">
-        <v>5</v>
-      </c>
-      <c r="C19" s="11">
-        <v>6</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B20" s="11">
-        <v>7</v>
-      </c>
-      <c r="C20" s="11">
-        <v>9</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B21" s="11">
-        <v>10</v>
-      </c>
-      <c r="C21" s="11">
-        <v>12</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B22" s="11">
-        <v>13</v>
-      </c>
-      <c r="C22" s="11">
-        <v>18</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B23" s="2">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2">
-        <v>30</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/personaggio/batman3" xr:uid="{C498F5EC-40E4-40C4-9515-0A4F49B660C7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06672F4A-AA94-4DEA-A943-1B198B86E01B}">
-  <dimension ref="A4:D23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="248" zoomScaleNormal="248" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="4" max="4" width="48.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:1" ht="21.5">
-      <c r="A4" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B19" s="11">
-        <v>2</v>
-      </c>
-      <c r="C19" s="11">
-        <v>5</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B20" s="2">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B21" s="11">
-        <v>8</v>
-      </c>
-      <c r="C21" s="11">
-        <v>11</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B22" s="11">
-        <v>12</v>
-      </c>
-      <c r="C22" s="11">
-        <v>12</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B23" s="11">
-        <v>13</v>
-      </c>
-      <c r="C23" s="11">
-        <v>13</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/personaggio/catwoman3" xr:uid="{83E5080B-13CD-45C1-92BF-859E987DF919}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/03 Batman.xlsx
+++ b/03 Batman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AC9E06-522F-4C91-8B0D-228C047D2638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC59EE7D-D5A3-4DBE-85FB-F0692F8FF5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9700" yWindow="1330" windowWidth="36370" windowHeight="18960" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="36370" windowHeight="18960" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="172">
   <si>
     <t>Da</t>
   </si>
@@ -1087,12 +1087,15 @@
   <si>
     <t>DC Comics Story # 11, #14</t>
   </si>
+  <si>
+    <t>Batman Hush (Loeb &amp; Lee)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1265,6 +1268,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1305,7 +1316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1328,6 +1339,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -2443,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73971FEA-25FE-4DC4-9CE1-41D7407E5AC2}">
   <dimension ref="A4:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A43" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2868,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A47C3C9-F920-4C71-BE03-2F19A0EF59AF}">
-  <dimension ref="A4:D60"/>
+  <dimension ref="A4:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3180,7 +3192,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="2:4" s="11" customFormat="1" ht="21">
+    <row r="49" spans="2:5" s="11" customFormat="1" ht="21">
       <c r="B49" s="11">
         <v>470</v>
       </c>
@@ -3191,7 +3203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="2:4" s="11" customFormat="1" ht="21">
+    <row r="50" spans="2:5" s="11" customFormat="1" ht="21">
       <c r="B50" s="11">
         <v>475</v>
       </c>
@@ -3202,7 +3214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="2:4" s="11" customFormat="1" ht="21">
+    <row r="51" spans="2:5" s="11" customFormat="1" ht="21">
       <c r="B51" s="11">
         <v>477</v>
       </c>
@@ -3213,7 +3225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="2:4" s="11" customFormat="1" ht="21">
+    <row r="52" spans="2:5" s="11" customFormat="1" ht="21">
       <c r="B52" s="11">
         <v>484</v>
       </c>
@@ -3224,7 +3236,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="53" spans="2:5" s="2" customFormat="1" ht="21">
       <c r="B53" s="2">
         <v>491</v>
       </c>
@@ -3235,7 +3247,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="54" spans="2:5" s="2" customFormat="1" ht="21">
       <c r="B54" s="2">
         <v>492</v>
       </c>
@@ -3246,7 +3258,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="2:4" s="2" customFormat="1" ht="21">
+    <row r="55" spans="2:5" s="2" customFormat="1" ht="21">
       <c r="B55" s="2">
         <v>496</v>
       </c>
@@ -3257,19 +3269,22 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="2:4" s="2" customFormat="1" ht="21"/>
-    <row r="57" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B57" s="2">
+    <row r="56" spans="2:5" s="2" customFormat="1" ht="21"/>
+    <row r="57" spans="2:5" s="22" customFormat="1" ht="21">
+      <c r="B57" s="22">
         <v>608</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="22">
         <v>619</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="22" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="E57" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" s="2" customFormat="1" ht="21">
       <c r="B60" s="2">
         <v>686</v>
       </c>

--- a/03 Batman.xlsx
+++ b/03 Batman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC59EE7D-D5A3-4DBE-85FB-F0692F8FF5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990DFD4B-4480-47FD-889C-EC03503B8823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="36370" windowHeight="18960" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="165">
   <si>
     <t>Da</t>
   </si>
@@ -817,36 +817,15 @@
     <t>Batman Saga da #12 a #13</t>
   </si>
   <si>
-    <t>Batman Saga da #4 a #18</t>
-  </si>
-  <si>
-    <t>Batman Saga da #18 a #19</t>
-  </si>
-  <si>
-    <t>Batman Saga #19</t>
-  </si>
-  <si>
-    <t>Batman Saga #21</t>
-  </si>
-  <si>
     <t>Batman Saga da #4 a #21</t>
   </si>
   <si>
     <t>Batman Saga da #9 a #23</t>
   </si>
   <si>
-    <t>Batman Saga #23</t>
-  </si>
-  <si>
     <t>Batman Saga da #23</t>
   </si>
   <si>
-    <t>Batman Saga da #21 a #24</t>
-  </si>
-  <si>
-    <t>Batman Saga #24</t>
-  </si>
-  <si>
     <t>Universo DC: Robin #2</t>
   </si>
   <si>
@@ -865,21 +844,6 @@
     <t>Leggende DC da #1 a #2</t>
   </si>
   <si>
-    <t>Batman: the dark knight returns</t>
-  </si>
-  <si>
-    <t>Frank Miller, Klaus Janson</t>
-  </si>
-  <si>
-    <t>Leggende DC da #6 a  #7</t>
-  </si>
-  <si>
-    <t>Dark Knights: Metal</t>
-  </si>
-  <si>
-    <t>Leggende DC #16</t>
-  </si>
-  <si>
     <r>
       <t>anno inizio serie:</t>
     </r>
@@ -1089,6 +1053,21 @@
   </si>
   <si>
     <t>Batman Hush (Loeb &amp; Lee)</t>
+  </si>
+  <si>
+    <t>Batman Saga da #4 a #23</t>
+  </si>
+  <si>
+    <t>Batman Saga da #18 a #21</t>
+  </si>
+  <si>
+    <t>Batman Saga #19 #21 #24</t>
+  </si>
+  <si>
+    <t>Batman Saga #21 #24</t>
+  </si>
+  <si>
+    <t>Batman Play Press #79</t>
   </si>
 </sst>
 </file>
@@ -1817,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61DF9C1-04BA-4013-B8A7-62BB412E7EC0}">
-  <dimension ref="A4:D23"/>
+  <dimension ref="A4:D26"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A10" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1894,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="11" customFormat="1" ht="21">
@@ -1905,7 +1884,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="11" customFormat="1" ht="21">
@@ -1916,7 +1895,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="11" customFormat="1" ht="21">
@@ -1927,7 +1906,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="11" customFormat="1" ht="21">
@@ -1938,7 +1917,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="2" customFormat="1" ht="21">
@@ -1949,7 +1928,18 @@
         <v>30</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B26" s="2">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2">
+        <v>79</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1962,10 +1952,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06672F4A-AA94-4DEA-A943-1B198B86E01B}">
-  <dimension ref="A4:D23"/>
+  <dimension ref="A4:D22"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="248" zoomScaleNormal="248" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2076,26 +2066,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B22" s="11">
+    <row r="22" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B22" s="2">
         <v>12</v>
       </c>
-      <c r="C22" s="11">
-        <v>12</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B23" s="11">
+      <c r="C22" s="2">
         <v>13</v>
       </c>
-      <c r="C23" s="11">
-        <v>13</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>119</v>
+      <c r="D22" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2108,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BC974D-AF97-4511-9A7B-539BB8682E3F}">
-  <dimension ref="A4:D20"/>
+  <dimension ref="A4:D19"/>
   <sheetViews>
     <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2192,7 +2171,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="2" customFormat="1" ht="21">
@@ -2200,21 +2179,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B20" s="11">
-        <v>8</v>
-      </c>
-      <c r="C20" s="11">
-        <v>9</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2224,10 +2192,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E560FBA6-7C38-44E2-BE52-0A2021888AE8}">
-  <dimension ref="A3:F13"/>
+  <dimension ref="A3:F11"/>
   <sheetViews>
     <sheetView zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2240,30 +2208,30 @@
   <sheetData>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="B3" s="2">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A4" s="2" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2272,49 +2240,46 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="B7" s="2">
         <v>1993</v>
@@ -2323,38 +2288,41 @@
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>148</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A8" s="2" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A9" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B9" s="2">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2363,35 +2331,35 @@
         <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="21">
       <c r="A10" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B10" s="2">
-        <v>2000</v>
+        <v>2016</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="21">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21">
       <c r="A11" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B11" s="2">
         <v>2016</v>
@@ -2400,50 +2368,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="21">
-      <c r="A12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2016</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21">
-      <c r="A13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2016</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F13" t="s">
-        <v>149</v>
+        <v>135</v>
+      </c>
+      <c r="F11" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2453,10 +2384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73971FEA-25FE-4DC4-9CE1-41D7407E5AC2}">
-  <dimension ref="A4:D47"/>
+  <dimension ref="A4:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2532,7 +2463,7 @@
         <v>336</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="2" customFormat="1" ht="21"/>
@@ -2544,7 +2475,7 @@
         <v>410</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="2" customFormat="1" ht="21"/>
@@ -2751,43 +2682,32 @@
         <v>663</v>
       </c>
       <c r="C41" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" s="11" customFormat="1" ht="21">
-      <c r="B42" s="11">
-        <v>676</v>
-      </c>
-      <c r="C42" s="11">
-        <v>676</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="2" customFormat="1" ht="21">
       <c r="B43" s="2">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="C43" s="2">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" s="2" customFormat="1" ht="21">
-      <c r="B47" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" s="2" customFormat="1" ht="21">
+      <c r="B45" s="2">
         <v>853</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C45" s="2">
         <v>853</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>152</v>
+      <c r="D45" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2813,7 +2733,7 @@
   <sheetData>
     <row r="4" spans="1:4" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2823,20 +2743,20 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2870,7 +2790,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2882,7 +2802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A47C3C9-F920-4C71-BE03-2F19A0EF59AF}">
   <dimension ref="A4:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
       <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
@@ -2984,7 +2904,7 @@
         <v>170</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1" ht="21"/>
@@ -2996,7 +2916,7 @@
         <v>232</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="2" customFormat="1" ht="21"/>
@@ -3008,7 +2928,7 @@
         <v>234</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="2" customFormat="1" ht="21"/>
@@ -3020,7 +2940,7 @@
         <v>237</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="2" customFormat="1" ht="21"/>
@@ -3032,7 +2952,7 @@
         <v>245</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="2" customFormat="1" ht="21"/>
@@ -3044,7 +2964,7 @@
         <v>251</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="2" customFormat="1" ht="21"/>
@@ -3056,7 +2976,7 @@
         <v>255</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="2" customFormat="1" ht="21"/>
@@ -3068,7 +2988,7 @@
         <v>407</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="2" customFormat="1" ht="21">
@@ -3266,7 +3186,7 @@
         <v>510</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:5" s="2" customFormat="1" ht="21"/>
@@ -3278,10 +3198,10 @@
         <v>619</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="2:5" s="2" customFormat="1" ht="21">
@@ -3292,7 +3212,7 @@
         <v>686</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3335,7 +3255,7 @@
         <v>176</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3375,7 +3295,7 @@
         <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3388,7 +3308,7 @@
   <dimension ref="A4:E17"/>
   <sheetViews>
     <sheetView zoomScale="224" zoomScaleNormal="224" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3400,7 +3320,7 @@
   <sheetData>
     <row r="4" spans="1:5" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3410,17 +3330,17 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3440,12 +3360,12 @@
     </row>
     <row r="13" spans="1:5">
       <c r="E13" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="E14" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="21">
@@ -3464,7 +3384,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3490,7 +3410,7 @@
   <sheetData>
     <row r="4" spans="1:4" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3503,10 +3423,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3516,7 +3436,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="13" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3550,7 +3470,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3560,10 +3480,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21063A3-CAE4-458A-B500-7CB272B5A438}">
-  <dimension ref="A4:E29"/>
+  <dimension ref="A4:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3718,32 +3638,21 @@
         <v>59</v>
       </c>
       <c r="C27" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="11" customFormat="1" ht="21">
-      <c r="B28" s="11">
-        <v>62</v>
-      </c>
-      <c r="C28" s="11">
-        <v>62</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" ht="21">
-      <c r="B29" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" ht="21">
+      <c r="B28" s="2">
         <v>63</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C28" s="2">
         <v>63</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>117</v>
+      <c r="D28" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/03 Batman.xlsx
+++ b/03 Batman.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990DFD4B-4480-47FD-889C-EC03503B8823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D76345-4797-4EAB-8582-8E129969E8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -2386,8 +2386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73971FEA-25FE-4DC4-9CE1-41D7407E5AC2}">
   <dimension ref="A4:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A35" zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2802,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A47C3C9-F920-4C71-BE03-2F19A0EF59AF}">
   <dimension ref="A4:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
